--- a/TEAM.xlsx
+++ b/TEAM.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DA220A-AA3D-45E2-B0C4-AEE026A0551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB6EE5-9091-4B5F-AF65-C9A828263573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{3AF6BCC7-0372-4EF8-A651-596D3CC14EF5}"/>
+    <workbookView xWindow="14235" yWindow="90" windowWidth="33210" windowHeight="20805" activeTab="1" xr2:uid="{3AF6BCC7-0372-4EF8-A651-596D3CC14EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={404C3A6C-57D9-462B-8169-03AF44C46401}</author>
-    <author>tc={81C416ED-B805-4A5E-90CB-C684086667DC}</author>
+    <author>tc={B0D31656-8A16-4E18-8B61-E7D1D442A65E}</author>
+    <author>tc={18DD1B87-6DD2-44AB-8575-BA937C652995}</author>
   </authors>
   <commentList>
     <comment ref="K15" authorId="0" shapeId="0" xr:uid="{404C3A6C-57D9-462B-8169-03AF44C46401}">
@@ -50,12 +54,20 @@
     FQ22 guidance: 690-705</t>
       </text>
     </comment>
-    <comment ref="L15" authorId="1" shapeId="0" xr:uid="{81C416ED-B805-4A5E-90CB-C684086667DC}">
+    <comment ref="L15" authorId="1" shapeId="0" xr:uid="{B0D31656-8A16-4E18-8B61-E7D1D442A65E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    FQ322 guidance: 710-725</t>
+    FQ22 guidance: 690-705</t>
+      </text>
+    </comment>
+    <comment ref="M15" authorId="2" shapeId="0" xr:uid="{18DD1B87-6DD2-44AB-8575-BA937C652995}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    FQ22 guidance: 690-705</t>
       </text>
     </comment>
   </commentList>
@@ -63,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>Price</t>
   </si>
@@ -210,16 +222,127 @@
   </si>
   <si>
     <t>FQ223</t>
+  </si>
+  <si>
+    <t>FQ323</t>
+  </si>
+  <si>
+    <t>FQ423</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>FY32</t>
+  </si>
+  <si>
+    <t>FY33</t>
+  </si>
+  <si>
+    <t>FY34</t>
+  </si>
+  <si>
+    <t>FY35</t>
+  </si>
+  <si>
+    <t>FY36</t>
+  </si>
+  <si>
+    <t>FY37</t>
+  </si>
+  <si>
+    <t>FY38</t>
+  </si>
+  <si>
+    <t>FY39</t>
+  </si>
+  <si>
+    <t>FY40</t>
+  </si>
+  <si>
+    <t>FY41</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>Rev Growth</t>
+  </si>
+  <si>
+    <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>Terminal Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+  <numFmts count="7">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -240,16 +363,39 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -257,12 +403,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,13 +453,36 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -367,6 +554,30 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="L2">
+            <v>722</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Martin Shkreli" id="{691673F2-D878-4E73-9BD7-049390760563}" userId="9ffda80931a57275" providerId="Windows Live"/>
@@ -374,9 +585,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -414,7 +625,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -520,7 +731,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -662,7 +873,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -673,8 +884,11 @@
   <threadedComment ref="K15" dT="2022-07-27T14:40:47.90" personId="{691673F2-D878-4E73-9BD7-049390760563}" id="{404C3A6C-57D9-462B-8169-03AF44C46401}">
     <text>FQ22 guidance: 690-705</text>
   </threadedComment>
-  <threadedComment ref="L15" dT="2022-07-27T14:37:17.16" personId="{691673F2-D878-4E73-9BD7-049390760563}" id="{81C416ED-B805-4A5E-90CB-C684086667DC}">
-    <text>FQ322 guidance: 710-725</text>
+  <threadedComment ref="L15" dT="2022-07-27T14:40:47.90" personId="{691673F2-D878-4E73-9BD7-049390760563}" id="{B0D31656-8A16-4E18-8B61-E7D1D442A65E}">
+    <text>FQ22 guidance: 690-705</text>
+  </threadedComment>
+  <threadedComment ref="M15" dT="2022-07-27T14:40:47.90" personId="{691673F2-D878-4E73-9BD7-049390760563}" id="{18DD1B87-6DD2-44AB-8575-BA937C652995}">
+    <text>FQ22 guidance: 690-705</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -684,7 +898,7 @@
   <dimension ref="B2:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -697,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>190.85</v>
+        <v>179.45</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -708,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>253.72300000000001</v>
+        <v>259.71699999999998</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>6</v>
@@ -723,7 +937,7 @@
       </c>
       <c r="L4" s="1">
         <f>+L2*L3</f>
-        <v>48423.034550000004</v>
+        <v>46606.215649999991</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -758,7 +972,7 @@
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>47990.635550000006</v>
+        <v>46173.816649999993</v>
       </c>
     </row>
   </sheetData>
@@ -768,13 +982,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF29F7FA-B9F0-42C1-B494-BA78776DB519}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:AQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomRight" activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -786,9 +1000,14 @@
     <col min="7" max="9" width="9.140625" style="2"/>
     <col min="10" max="10" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9.140625" style="2"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="16"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -837,8 +1056,11 @@
       <c r="R1" s="12">
         <v>45291</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="13">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
@@ -875,8 +1097,89 @@
       <c r="N2" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -910,8 +1213,20 @@
       <c r="N3" s="3">
         <v>253177</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="3">
+        <v>259775</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>265000</v>
+      </c>
+      <c r="R3" s="1">
+        <v>302000</v>
+      </c>
+      <c r="S3" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
@@ -936,13 +1251,38 @@
       <c r="K7" s="3">
         <v>399.45299999999997</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="3">
+        <f>1515.424-SUM(I7:K7)</f>
+        <v>433.96900000000005</v>
+      </c>
+      <c r="M7" s="1">
+        <v>475.04300000000001</v>
+      </c>
       <c r="N7" s="3">
         <v>512.33500000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="1">
+        <v>534.89099999999996</v>
+      </c>
+      <c r="P7" s="1">
+        <f>2085.498-SUM(M7:O7)</f>
+        <v>563.22900000000004</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>604.64700000000005</v>
+      </c>
+      <c r="R7" s="1">
+        <v>653.21</v>
+      </c>
+      <c r="S7" s="1">
+        <v>703.03599999999994</v>
+      </c>
+      <c r="T7" s="18">
+        <f>P7*1.32</f>
+        <v>743.46228000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
@@ -967,13 +1307,38 @@
       <c r="K8" s="3">
         <v>151.095</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="3">
+        <f>560.319-SUM(I8:K8)</f>
+        <v>158.92099999999994</v>
+      </c>
+      <c r="M8" s="3">
+        <v>161.22800000000001</v>
+      </c>
       <c r="N8" s="3">
         <v>194.26400000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="1">
+        <v>221.55099999999999</v>
+      </c>
+      <c r="P8" s="1">
+        <f>819.251-SUM(M8:O8)</f>
+        <v>242.20799999999997</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>242.94300000000001</v>
+      </c>
+      <c r="R8" s="1">
+        <v>274.75799999999998</v>
+      </c>
+      <c r="S8" s="1">
+        <v>364.13400000000001</v>
+      </c>
+      <c r="T8" s="18">
+        <f>P8*1.41</f>
+        <v>341.51327999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -998,13 +1363,37 @@
       <c r="K9" s="3">
         <v>132.333</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="3">
+        <f>525.028-SUM(I9:K9)</f>
+        <v>117.62900000000002</v>
+      </c>
+      <c r="M9" s="3">
+        <v>113.813</v>
+      </c>
       <c r="N9" s="3">
         <v>106.16800000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="1">
+        <v>94.388999999999996</v>
+      </c>
+      <c r="P9" s="1">
+        <f>400.519-SUM(M9:O9)</f>
+        <v>86.149000000000001</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>78.751999999999995</v>
+      </c>
+      <c r="R9" s="1">
+        <v>69.173000000000002</v>
+      </c>
+      <c r="S9" s="1">
+        <v>29.72</v>
+      </c>
+      <c r="T9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1029,13 +1418,37 @@
       <c r="K10" s="3">
         <v>57.61</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="3">
+        <f>202.111-SUM(I10:K10)</f>
+        <v>49.322000000000003</v>
+      </c>
+      <c r="M10" s="3">
+        <v>47.308</v>
+      </c>
       <c r="N10" s="3">
         <v>59.936999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="1">
+        <v>64.622</v>
+      </c>
+      <c r="P10" s="1">
+        <f>229.379-SUM(M10:O10)</f>
+        <v>57.511999999999972</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>51.433</v>
+      </c>
+      <c r="R10" s="1">
+        <v>62.969000000000001</v>
+      </c>
+      <c r="S10" s="1">
+        <v>92.238</v>
+      </c>
+      <c r="T10" s="18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1064,13 +1477,122 @@
       <c r="K12" s="3">
         <v>555.12599999999998</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="3">
+        <f>2096.706-SUM(I12:K12)</f>
+        <v>597.29700000000003</v>
+      </c>
+      <c r="M12" s="3">
+        <v>650</v>
+      </c>
       <c r="N12" s="3">
         <v>711.19899999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="1">
+        <v>760.68</v>
+      </c>
+      <c r="P12" s="1">
+        <f>2922.576-SUM(M12:O12)</f>
+        <v>800.69700000000012</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>851.98199999999997</v>
+      </c>
+      <c r="R12" s="1">
+        <v>932.18100000000004</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1071.355</v>
+      </c>
+      <c r="T12" s="18"/>
+      <c r="V12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="1">
+        <f>SUM(E15:H15)</f>
+        <v>2089.1320000000001</v>
+      </c>
+      <c r="X12" s="1">
+        <f>SUM(I15:L15)</f>
+        <v>2802.8820000000005</v>
+      </c>
+      <c r="Y12" s="1">
+        <f>SUM(M15:P15)</f>
+        <v>3534.6469999999999</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>SUM(Q15:T15)</f>
+        <v>4354.518</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>Z12*(1+AA13)</f>
+        <v>5356.0571399999999</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" ref="AB12:AQ12" si="0">AA12*(1+AB13)</f>
+        <v>6587.9502821999995</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="0"/>
+        <v>8103.178847105999</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="0"/>
+        <v>9966.9099819403782</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="0"/>
+        <v>12259.299277786666</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="0"/>
+        <v>15078.938111677598</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="0"/>
+        <v>18547.093877363444</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="0"/>
+        <v>22812.925469157035</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="0"/>
+        <v>28059.898327063154</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="0"/>
+        <v>34513.674942287682</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="0"/>
+        <v>42451.820179013848</v>
+      </c>
+      <c r="AL12" s="1">
+        <f t="shared" si="0"/>
+        <v>52215.738820187034</v>
+      </c>
+      <c r="AM12" s="1">
+        <f t="shared" si="0"/>
+        <v>64225.358748830055</v>
+      </c>
+      <c r="AN12" s="1">
+        <f t="shared" si="0"/>
+        <v>78997.191261060972</v>
+      </c>
+      <c r="AO12" s="1">
+        <f t="shared" si="0"/>
+        <v>97166.545251104995</v>
+      </c>
+      <c r="AP12" s="1">
+        <f t="shared" si="0"/>
+        <v>119514.85065885914</v>
+      </c>
+      <c r="AQ12" s="1">
+        <f t="shared" si="0"/>
+        <v>147003.26631039675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,13 +1621,118 @@
       <c r="K13" s="3">
         <v>120.333</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="3">
+        <f>495.077-SUM(I13:K13)</f>
+        <v>117.09500000000003</v>
+      </c>
+      <c r="M13" s="3">
+        <v>113.565</v>
+      </c>
       <c r="N13" s="3">
         <v>106.023</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="1">
+        <v>94.224999999999994</v>
+      </c>
+      <c r="P13" s="1">
+        <f>399.738-SUM(M13:O13)</f>
+        <v>85.925000000000011</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>78.597999999999999</v>
+      </c>
+      <c r="R13" s="1">
+        <v>69.102000000000004</v>
+      </c>
+      <c r="S13" s="1">
+        <v>29.535</v>
+      </c>
+      <c r="T13" s="18"/>
+      <c r="V13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X13" s="15">
+        <f>(X12-W12)/W12</f>
+        <v>0.34164906765106295</v>
+      </c>
+      <c r="Y13" s="15">
+        <f>(Y12-X12)/X12</f>
+        <v>0.26107592114116801</v>
+      </c>
+      <c r="Z13" s="15">
+        <f>(Z12-Y12)/Y12</f>
+        <v>0.23195272399195735</v>
+      </c>
+      <c r="AA13" s="15">
+        <f>$AB$22</f>
+        <v>0.23</v>
+      </c>
+      <c r="AB13" s="15">
+        <f t="shared" ref="AB13:AQ13" si="1">$AB$22</f>
+        <v>0.23</v>
+      </c>
+      <c r="AC13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AD13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AE13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AF13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AG13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AH13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AI13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AJ13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AK13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AL13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AM13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AN13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AO13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AP13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="AQ13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,61 +1763,109 @@
       <c r="K14" s="3">
         <v>65.031999999999996</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="3">
+        <f>211.099-SUM(I14:K14)</f>
+        <v>45.449000000000012</v>
+      </c>
+      <c r="M14" s="3">
+        <v>42.843000000000004</v>
+      </c>
       <c r="N14" s="3">
         <v>55.481999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="1">
+        <v>60.548000000000002</v>
+      </c>
+      <c r="P14" s="1">
+        <f>212.333-SUM(M14:O14)</f>
+        <v>53.460000000000008</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>47.195</v>
+      </c>
+      <c r="R14" s="1">
+        <v>58.826999999999998</v>
+      </c>
+      <c r="S14" s="1">
+        <v>88.242999999999995</v>
+      </c>
+      <c r="T14" s="18"/>
+    </row>
+    <row r="15" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9">
-        <f t="shared" ref="D15:K15" si="0">SUM(D12:D14)</f>
+        <f t="shared" ref="D15:M15" si="2">SUM(D12:D14)</f>
         <v>430.476</v>
       </c>
       <c r="E15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>459.50600000000003</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>501.35900000000004</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>568.72800000000007</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>559.53899999999999</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>614.024</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>688.52600000000007</v>
       </c>
       <c r="K15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>740.49099999999999</v>
       </c>
       <c r="L15" s="9">
-        <v>759.8</v>
+        <f t="shared" si="2"/>
+        <v>759.84100000000012</v>
       </c>
       <c r="M15" s="9">
-        <v>807.4</v>
+        <f t="shared" si="2"/>
+        <v>806.40800000000002</v>
       </c>
       <c r="N15" s="9">
-        <f t="shared" ref="N15" si="1">SUM(N12:N14)</f>
+        <f t="shared" ref="N15:S15" si="3">SUM(N12:N14)</f>
         <v>872.70399999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="9">
+        <f t="shared" si="3"/>
+        <v>915.45299999999997</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="3"/>
+        <v>940.08200000000011</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="3"/>
+        <v>977.77499999999998</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="3"/>
+        <v>1060.1100000000001</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="3"/>
+        <v>1189.133</v>
+      </c>
+      <c r="T15" s="19">
+        <f>(1120+1135)/2</f>
+        <v>1127.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1221,57 +1896,107 @@
         <f>119.374-5.709</f>
         <v>113.66499999999999</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="3">
+        <f>465.707-SUM(I16:K16)</f>
+        <v>138.863</v>
+      </c>
+      <c r="M16" s="3">
+        <v>139.392</v>
+      </c>
       <c r="N16" s="3">
         <f>N15-N17</f>
         <v>131.69499999999994</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="1">
+        <v>168.65199999999999</v>
+      </c>
+      <c r="P16" s="1">
+        <f>633.765-SUM(M16:O16)</f>
+        <v>194.02600000000007</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>178.029</v>
+      </c>
+      <c r="R16" s="1">
+        <v>194.536</v>
+      </c>
+      <c r="S16" s="1">
+        <f>213.425</f>
+        <v>213.42500000000001</v>
+      </c>
+      <c r="T16" s="18"/>
+    </row>
+    <row r="17" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
-        <f t="shared" ref="D17:K17" si="2">+D15-D16</f>
+        <f t="shared" ref="D17:M17" si="4">+D15-D16</f>
         <v>360.35500000000002</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>385.822</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>421.87700000000007</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>489.39400000000006</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>461.572</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>516.00599999999997</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>573.36500000000001</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>626.82600000000002</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="L17" s="3">
+        <f t="shared" si="4"/>
+        <v>620.97800000000007</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="4"/>
+        <v>667.01600000000008</v>
+      </c>
       <c r="N17" s="3">
         <v>741.00900000000001</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <f t="shared" ref="O17:S17" si="5">+O15-O16</f>
+        <v>746.80099999999993</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="5"/>
+        <v>746.05600000000004</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="5"/>
+        <v>799.74599999999998</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="5"/>
+        <v>865.57400000000007</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="5"/>
+        <v>975.70800000000008</v>
+      </c>
+      <c r="T17" s="18"/>
+    </row>
+    <row r="18" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1300,13 +2025,35 @@
       <c r="K18" s="3">
         <v>363.74599999999998</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="3">
+        <f>1397.568-SUM(I18:K18)</f>
+        <v>379</v>
+      </c>
+      <c r="M18" s="3">
+        <v>399.00599999999997</v>
+      </c>
       <c r="N18" s="3">
         <v>473.67599999999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="1">
+        <v>522.34400000000005</v>
+      </c>
+      <c r="P18" s="1">
+        <f>1869.881-SUM(M18:O18)</f>
+        <v>474.85500000000002</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>481.738</v>
+      </c>
+      <c r="R18" s="1">
+        <v>536.779</v>
+      </c>
+      <c r="S18" s="1">
+        <v>576.49</v>
+      </c>
+      <c r="T18" s="18"/>
+    </row>
+    <row r="19" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1337,13 +2084,35 @@
         <f>150.796-2.302</f>
         <v>148.494</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="3">
+        <f>567.691-SUM(I19:K19)</f>
+        <v>181.61</v>
+      </c>
+      <c r="M19" s="3">
+        <v>160.12799999999999</v>
+      </c>
       <c r="N19" s="3">
         <v>186.191</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="1">
+        <v>220.92099999999999</v>
+      </c>
+      <c r="P19" s="1">
+        <f>769.861-SUM(M19:O19)</f>
+        <v>202.62099999999998</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>193.56700000000001</v>
+      </c>
+      <c r="R19" s="1">
+        <v>220.51300000000001</v>
+      </c>
+      <c r="S19" s="1">
+        <v>223.81399999999999</v>
+      </c>
+      <c r="T19" s="18"/>
+    </row>
+    <row r="20" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1372,27 +2141,49 @@
       <c r="K20" s="3">
         <v>122.70699999999999</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="3">
+        <f>478.373-SUM(I20:K20)</f>
+        <v>131.63200000000001</v>
+      </c>
+      <c r="M20" s="3">
+        <v>142.893</v>
+      </c>
       <c r="N20" s="3">
         <v>156.131</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="1">
+        <v>165.10300000000001</v>
+      </c>
+      <c r="P20" s="1">
+        <f>606.362-SUM(M20:O20)</f>
+        <v>142.23499999999996</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>143.31</v>
+      </c>
+      <c r="R20" s="1">
+        <v>157.34399999999999</v>
+      </c>
+      <c r="S20" s="1">
+        <v>157.595</v>
+      </c>
+      <c r="T20" s="18"/>
+    </row>
+    <row r="21" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
-        <f t="shared" ref="D21:F21" si="3">SUM(D18:D20)</f>
+        <f t="shared" ref="D21:F21" si="6">SUM(D18:D20)</f>
         <v>363.64400000000001</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>373.89</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>394.16399999999999</v>
       </c>
       <c r="G21" s="3">
@@ -1416,33 +2207,54 @@
         <v>634.947</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" ref="L21:N21" si="4">SUM(L18:L20)</f>
-        <v>0</v>
+        <f t="shared" ref="L21:S21" si="7">SUM(L18:L20)</f>
+        <v>692.24199999999996</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>702.02700000000004</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>815.99799999999993</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <f t="shared" si="7"/>
+        <v>908.36800000000017</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="7"/>
+        <v>819.71100000000001</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="7"/>
+        <v>818.61500000000001</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="7"/>
+        <v>914.63599999999997</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="7"/>
+        <v>957.899</v>
+      </c>
+      <c r="T21" s="18"/>
+    </row>
+    <row r="22" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <f t="shared" ref="D22:F22" si="5">+D17-D21</f>
+        <f t="shared" ref="D22:F22" si="8">+D17-D21</f>
         <v>-3.2889999999999873</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11.932000000000016</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>27.713000000000079</v>
       </c>
       <c r="G22" s="3">
@@ -1466,19 +2278,46 @@
         <v>-8.1209999999999809</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" ref="L22:N22" si="6">+L17-L21</f>
-        <v>0</v>
+        <f t="shared" ref="L22:N22" si="9">+L17-L21</f>
+        <v>-71.263999999999896</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-35.010999999999967</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-74.988999999999919</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <f>+O17-O21</f>
+        <v>-161.56700000000023</v>
+      </c>
+      <c r="P22" s="1">
+        <f>-345.22-SUM(M22:O22)</f>
+        <v>-73.652999999999906</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>+Q17-Q21</f>
+        <v>-18.869000000000028</v>
+      </c>
+      <c r="R22" s="3">
+        <f>+R17-R21</f>
+        <v>-49.061999999999898</v>
+      </c>
+      <c r="S22" s="3">
+        <f>+S17-S21</f>
+        <v>17.809000000000083</v>
+      </c>
+      <c r="T22" s="18"/>
+      <c r="AA22" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB22" s="23">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1514,64 +2353,124 @@
         <f>0.608-6.024</f>
         <v>-5.4160000000000004</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="3">
+        <f>-49.552-SUM(I23:K23)</f>
+        <v>-31.303999999999998</v>
+      </c>
+      <c r="M23" s="3">
+        <f>-6.121+5.143</f>
+        <v>-0.97800000000000065</v>
+      </c>
       <c r="N23" s="3">
         <f>-6.749+8.963-7.508</f>
         <v>-5.2940000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="1">
+        <f>15.047-7.978</f>
+        <v>7.0690000000000008</v>
+      </c>
+      <c r="P23" s="1">
+        <f>14.5-SUM(M23:O23)</f>
+        <v>13.702999999999999</v>
+      </c>
+      <c r="Q23" s="14">
+        <f>25.226-8.976</f>
+        <v>16.25</v>
+      </c>
+      <c r="R23" s="1">
+        <f>22.593-4.639</f>
+        <v>17.954000000000001</v>
+      </c>
+      <c r="S23" s="1">
+        <f>21.414-10.99</f>
+        <v>10.424000000000001</v>
+      </c>
+      <c r="T23" s="18"/>
+      <c r="AA23" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB23" s="23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3">
-        <f t="shared" ref="D24:N24" si="7">+D22+D23</f>
+        <f t="shared" ref="D24:S24" si="10">+D22+D23</f>
         <v>-12.382999999999987</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.9470000000000169</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>29.825000000000081</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>68.220000000000041</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-14.617000000000012</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>32.814999999999955</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-72.718999999999966</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-13.536999999999981</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-102.5679999999999</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-35.988999999999969</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-80.282999999999916</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <f t="shared" si="10"/>
+        <v>-154.49800000000025</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="10"/>
+        <v>-59.949999999999903</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="10"/>
+        <v>-2.6190000000000282</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" si="10"/>
+        <v>-31.107999999999898</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="10"/>
+        <v>28.233000000000082</v>
+      </c>
+      <c r="T24" s="18"/>
+      <c r="AA24" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB24" s="23">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1600,112 +2499,201 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="3">
+        <f>-49.552</f>
+        <v>-49.552</v>
+      </c>
+      <c r="M25" s="3">
+        <f>-8.025</f>
+        <v>-8.0250000000000004</v>
+      </c>
       <c r="N25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-100.498</f>
+        <v>-100.498</v>
+      </c>
+      <c r="O25" s="1">
+        <v>53.595999999999997</v>
+      </c>
+      <c r="P25" s="1">
+        <f>-175.652-SUM(M25:O25)</f>
+        <v>-120.72499999999997</v>
+      </c>
+      <c r="Q25" s="1">
+        <f>-20.929</f>
+        <v>-20.928999999999998</v>
+      </c>
+      <c r="R25" s="1">
+        <f>-40.109</f>
+        <v>-40.109000000000002</v>
+      </c>
+      <c r="S25" s="1">
+        <f>-7.023</f>
+        <v>-7.0229999999999997</v>
+      </c>
+      <c r="T25" s="18"/>
+      <c r="AA25" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB25" s="24">
+        <f>NPV(AB24,W12:AQ12)</f>
+        <v>148579.65860454194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
-        <f t="shared" ref="D26:N26" si="8">+D24-D25</f>
+        <f t="shared" ref="D26:S26" si="11">+D24-D25</f>
         <v>-12.382999999999987</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.9470000000000169</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>29.825000000000081</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>68.220000000000041</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-14.617000000000012</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>32.814999999999955</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-72.718999999999966</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-13.536999999999981</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-53.015999999999899</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-27.96399999999997</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="8"/>
-        <v>-80.282999999999916</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>20.215000000000089</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="11"/>
+        <v>-208.09400000000025</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="11"/>
+        <v>60.775000000000063</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="11"/>
+        <v>18.30999999999997</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="11"/>
+        <v>9.0010000000001043</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="11"/>
+        <v>35.256000000000085</v>
+      </c>
+      <c r="T26" s="18"/>
+      <c r="AA26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="25">
+        <f>Main!L3</f>
+        <v>259.71699999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" ref="D27:N27" si="9">+D26/D28</f>
+        <f t="shared" ref="D27:S27" si="12">+D26/D28</f>
         <v>-5.0152080321089906E-2</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.8503316331674181E-3</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11968874905693726</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.26739518986547944</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-5.81738728986246E-2</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.13016350265364551</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.28747232764073355</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-5.3353460269664088E-2</v>
       </c>
-      <c r="L27" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="L27" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.20929130874178836</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.10959097375444306</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="9"/>
-        <v>-0.31375989744952559</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>7.9003728397571027E-2</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="12"/>
+        <v>-0.81025601090236643</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="12"/>
+        <v>0.23711798741353166</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="12"/>
+        <v>7.0994583318793103E-2</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="12"/>
+        <v>3.4806516602797766E-2</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="12"/>
+        <v>0.13574775621156909</v>
+      </c>
+      <c r="AA27" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB27" s="26">
+        <f>AB25/AB26</f>
+        <v>572.08291565258321</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1734,13 +2722,49 @@
       <c r="K28" s="3">
         <v>253.72300000000001</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="3">
+        <v>253.31200000000001</v>
+      </c>
+      <c r="M28" s="3">
+        <v>255.167</v>
+      </c>
       <c r="N28" s="3">
         <v>255.874</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="1">
+        <v>256.82499999999999</v>
+      </c>
+      <c r="P28" s="1">
+        <v>256.30700000000002</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>257.90699999999998</v>
+      </c>
+      <c r="R28" s="1">
+        <v>258.601</v>
+      </c>
+      <c r="S28" s="1">
+        <v>259.71699999999998</v>
+      </c>
+      <c r="T28" s="18"/>
+      <c r="AA28" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB28" s="27">
+        <f>(AB27-[1]Main!$L$2)/[1]Main!$L$2</f>
+        <v>-0.20764139106290413</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA29" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB29" s="28">
+        <f>AB26*AB27</f>
+        <v>148579.65860454194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
@@ -1750,35 +2774,58 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="11">
-        <f>+H15/D15-1</f>
+        <f t="shared" ref="H30:S30" si="13">+H15/D15-1</f>
         <v>0.29981462381178048</v>
       </c>
       <c r="I30" s="11">
-        <f>+I15/E15-1</f>
+        <f t="shared" si="13"/>
         <v>0.33626982019821283</v>
       </c>
       <c r="J30" s="11">
-        <f>+J15/F15-1</f>
+        <f t="shared" si="13"/>
         <v>0.373319318093422</v>
       </c>
       <c r="K30" s="11">
-        <f>+K15/G15-1</f>
+        <f t="shared" si="13"/>
         <v>0.30201256136501087</v>
       </c>
       <c r="L30" s="11">
-        <f>+L15/H15-1</f>
-        <v>0.35790355989484191</v>
+        <f t="shared" si="13"/>
+        <v>0.35797683450125928</v>
       </c>
       <c r="M30" s="11">
-        <f>+M15/I15-1</f>
-        <v>0.31493231534923716</v>
+        <f t="shared" si="13"/>
+        <v>0.31331674331947945</v>
       </c>
       <c r="N30" s="11">
-        <f>+N15/J15-1</f>
+        <f t="shared" si="13"/>
         <v>0.26749607131756803</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="11">
+        <f t="shared" si="13"/>
+        <v>0.23627836124949519</v>
+      </c>
+      <c r="P30" s="11">
+        <f t="shared" si="13"/>
+        <v>0.23720883711197471</v>
+      </c>
+      <c r="Q30" s="11">
+        <f t="shared" si="13"/>
+        <v>0.21250657235543291</v>
+      </c>
+      <c r="R30" s="11">
+        <f t="shared" si="13"/>
+        <v>0.21474176811381662</v>
+      </c>
+      <c r="S30" s="11">
+        <f>+S15/O15-1</f>
+        <v>0.29895581750237321</v>
+      </c>
+      <c r="T30" s="20">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>45</v>
       </c>
@@ -1800,85 +2847,182 @@
         <f>+K7/G7-1</f>
         <v>0.59858571548629524</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L31" s="11" t="e">
+        <f>+L7/H7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="11">
+        <f>+M12/I7-1</f>
+        <v>1.0446488394258626</v>
+      </c>
+      <c r="N31" s="11">
+        <f>+N7/J7-1</f>
+        <v>0.40713102755019936</v>
+      </c>
+      <c r="O31" s="11">
+        <f>+O7/K7-1</f>
+        <v>0.33905866272127128</v>
+      </c>
+      <c r="P31" s="11">
+        <f>+P7/L7-1</f>
+        <v>0.29785537676654328</v>
+      </c>
+      <c r="Q31" s="11">
+        <f>+Q7/M7-1</f>
+        <v>0.2728258283986924</v>
+      </c>
+      <c r="R31" s="11">
+        <f>+R7/N7-1</f>
+        <v>0.27496657460450691</v>
+      </c>
+      <c r="S31" s="11">
+        <f>+S7/O7-1</f>
+        <v>0.31435376553353866</v>
+      </c>
+      <c r="T31" s="21">
+        <f>+T7/P7-1</f>
+        <v>0.32000000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" ref="D32:K32" si="10">+D17/D15</f>
+        <f t="shared" ref="D32:S32" si="14">+D17/D15</f>
         <v>0.8371082243841701</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.83964518417604983</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.84146689298486721</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.86050625254954916</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.8249147959302211</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.84036780321290372</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.83274269962209113</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.84650049764278035</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L32" s="6">
+        <f t="shared" si="14"/>
+        <v>0.81724729252567307</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="14"/>
+        <v>0.8271445719784527</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="14"/>
+        <v>0.84909545504546791</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="14"/>
+        <v>0.81577208223688158</v>
+      </c>
+      <c r="P32" s="6">
+        <f t="shared" si="14"/>
+        <v>0.79360736616593019</v>
+      </c>
+      <c r="Q32" s="6">
+        <f t="shared" si="14"/>
+        <v>0.81792436910332134</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" si="14"/>
+        <v>0.81649451472017054</v>
+      </c>
+      <c r="S32" s="6">
+        <f t="shared" si="14"/>
+        <v>0.82052049686620421</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" ref="D33:K33" si="11">+D22/D15</f>
+        <f t="shared" ref="D33:S33" si="15">+D22/D15</f>
         <v>-7.640379486893549E-3</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.5967016752773665E-2</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.5275760483007343E-2</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.13599998593352186</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-1.3450358241337978E-2</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.4567508761872436E-2</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-9.6899753967170377E-2</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-1.0967047540078111E-2</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="6">
+        <f t="shared" si="15"/>
+        <v>-9.3788042498364643E-2</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="15"/>
+        <v>-4.341598793662757E-2</v>
+      </c>
+      <c r="N33" s="6">
+        <f t="shared" si="15"/>
+        <v>-8.5927187224992582E-2</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="15"/>
+        <v>-0.17648857997079068</v>
+      </c>
+      <c r="P33" s="6">
+        <f t="shared" si="15"/>
+        <v>-7.8347420756912589E-2</v>
+      </c>
+      <c r="Q33" s="6">
+        <f t="shared" si="15"/>
+        <v>-1.929789573265836E-2</v>
+      </c>
+      <c r="R33" s="6">
+        <f t="shared" si="15"/>
+        <v>-4.6280103008178294E-2</v>
+      </c>
+      <c r="S33" s="6">
+        <f t="shared" si="15"/>
+        <v>1.4976457637623447E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
@@ -1910,8 +3054,10 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
+      <c r="T37" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8B4B4F9B-7A25-4B26-901F-5BB44EFDE58B}"/>
   </hyperlinks>
